--- a/gantt-chart TIMELINE per 16 February 2026.xlsx
+++ b/gantt-chart TIMELINE per 16 February 2026.xlsx
@@ -875,19 +875,19 @@
     <t>BBK INTERN</t>
   </si>
   <si>
+    <t>LAPORAN SURAT JALAN (P)</t>
+  </si>
+  <si>
+    <t>DETAIL LIST KARTON PER RAK</t>
+  </si>
+  <si>
+    <t>LAPORAN GUDANG PACKING LEAD TIME</t>
+  </si>
+  <si>
+    <t>LAPORAN PERSEDIAAN GUDANG PACKING</t>
+  </si>
+  <si>
     <t>DASHBOARD LAYOUT PER BIN</t>
-  </si>
-  <si>
-    <t>DETAIL LIST KARTON PER RAK</t>
-  </si>
-  <si>
-    <t>LAPORAN GUDANG PACKING LEAD TIME</t>
-  </si>
-  <si>
-    <t>LAPORAN PERSEDIAAN GUDANG PACKING</t>
-  </si>
-  <si>
-    <t>LAPORAN SURAT JALAN (P)</t>
   </si>
   <si>
     <t>LAPORAN SURAT JALAN SLOC</t>
@@ -4483,9 +4483,9 @@
   <dimension ref="A1:BN118"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane ySplit="7" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="7" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="H32" sqref="H32"/>
+      <selection pane="bottomLeft" activeCell="H39" sqref="H39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.75"/>
@@ -7536,8 +7536,8 @@
       <c r="G34" s="8">
         <v>5</v>
       </c>
-      <c r="H34" s="9">
-        <v>0</v>
+      <c r="H34" s="103">
+        <v>0.8</v>
       </c>
       <c r="I34" s="10">
         <f t="shared" si="17"/>
@@ -7888,8 +7888,8 @@
       <c r="G38" s="8">
         <v>2</v>
       </c>
-      <c r="H38" s="9">
-        <v>0.8</v>
+      <c r="H38" s="103">
+        <v>0</v>
       </c>
       <c r="I38" s="10">
         <f t="shared" ref="I38" si="28">IF(OR(F38=0,E38=0)," - ",NETWORKDAYS(E38,F38))</f>
@@ -14212,7 +14212,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{6d9b49f1-2dfe-4a54-aeda-4a5125e88d38}</x14:id>
+          <x14:id>{4482c56c-6eb3-4cfb-9a6a-6493b4003e11}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -14226,7 +14226,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{0d569941-623b-46ef-b7d2-60593c30e290}</x14:id>
+          <x14:id>{fd71954d-6044-4954-a569-29533bafcab4}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -14240,7 +14240,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{9e40adfc-7411-4b22-a00f-18799c52dd01}</x14:id>
+          <x14:id>{92052572-ec95-40c6-8cff-ce2880a57e57}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -14254,7 +14254,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{e99c1bd9-211a-4441-841f-0cb87c5ead93}</x14:id>
+          <x14:id>{8408aef4-25f9-4b6b-b36b-e90e4588755a}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -14279,7 +14279,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{333d8681-1ef7-46c9-b97a-d78faac61ea6}</x14:id>
+          <x14:id>{34560cce-4904-4320-84ee-f911ace3bc9c}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -14293,7 +14293,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{da0102ec-bbcb-412c-9a6f-f752ee4fb467}</x14:id>
+          <x14:id>{9cb55428-4e78-47a5-a430-f1e9e981128e}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -14307,7 +14307,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{fd8b1f7b-82bb-498f-9e99-9236321aa8bb}</x14:id>
+          <x14:id>{1d315e36-7aa5-4036-94b6-f74208a2bead}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -14321,7 +14321,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{cd6eec67-d798-476b-a534-fb7292ed9696}</x14:id>
+          <x14:id>{629ec47f-a6d2-4e9d-b480-235808cb0f70}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -14335,7 +14335,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{17795809-f84f-4fee-8815-b42d0cda1b51}</x14:id>
+          <x14:id>{a0d06acf-9cfe-4cfa-8f69-3ede38b202ca}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -14349,7 +14349,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{c28cc4a3-1f4d-4505-b2cd-7ae0e1b06007}</x14:id>
+          <x14:id>{319a2f99-e330-4ff2-b0e9-e932fb88917b}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -14363,7 +14363,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{fbd4ec82-0f66-4e3a-8956-ab5627980f95}</x14:id>
+          <x14:id>{885825fa-2905-4af0-a963-f23e8e89edfb}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -14377,7 +14377,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{6ae96f68-b42f-4796-b06c-5b1c256126b4}</x14:id>
+          <x14:id>{9f7cbb9a-7ec9-41c6-9ea2-33e0795f2b2c}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -14391,7 +14391,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{71a9e1c0-6bf3-47a9-bfd1-23e637bdc10a}</x14:id>
+          <x14:id>{81ea1f9b-021c-40a2-9156-f8bd04603329}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -14405,7 +14405,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{2fb2f425-1546-4333-823b-bc3b911ddf51}</x14:id>
+          <x14:id>{deb05009-d4f4-4fd8-a95f-9c8952258b66}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -14419,7 +14419,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{b30e300e-aaee-48a4-bac0-e2d530c5c5fd}</x14:id>
+          <x14:id>{3ecc0ff8-2761-4ff4-9f16-66b1a22017df}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -14433,7 +14433,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{e868eddb-6372-4845-a5fd-469561e41c6a}</x14:id>
+          <x14:id>{c139d09a-a0c1-454d-9d88-049d41cb8d62}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -14447,7 +14447,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{dcbfc4c2-0db9-4564-b2eb-1a67dc871ed5}</x14:id>
+          <x14:id>{545ac8f0-ed06-4327-8c1d-483b37157a81}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -14461,7 +14461,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{89b4c063-9869-4c0d-8d37-1648c1a023b5}</x14:id>
+          <x14:id>{d1a25fd7-15f2-4756-b6cb-dd248d63790c}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -14475,7 +14475,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{b52014f0-7fdc-4fad-891b-adcc43df0f14}</x14:id>
+          <x14:id>{3d4b97c2-cb3e-4843-9b67-f6b478e3283a}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -14489,7 +14489,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{b8a2ae99-6364-43de-b552-7c89ba062b91}</x14:id>
+          <x14:id>{21354551-4458-4dd9-998b-c85723b7773d}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -14503,7 +14503,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{cb698757-1a5a-4cfc-ad6f-66d771bc748e}</x14:id>
+          <x14:id>{f694d179-aedf-4fee-9083-038d3f9b123e}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -14517,7 +14517,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{67cfcd7b-3bc1-4361-8aa3-1abcd3ba18aa}</x14:id>
+          <x14:id>{8796d6af-b351-4060-a04c-aaf11674d959}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -14531,7 +14531,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{c36869c5-afc7-4b5b-b485-3ff1f8b36ab8}</x14:id>
+          <x14:id>{1d1005a1-e5ba-44ce-a05a-1d6d599328c6}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -14545,7 +14545,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{5a1f4cf5-3046-4072-94cb-73ef63672064}</x14:id>
+          <x14:id>{05571c06-b7a1-4cb1-9b09-14b8a237a0a2}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -14559,7 +14559,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{7194ea5b-f434-4fe3-8da2-36ffe313afc7}</x14:id>
+          <x14:id>{25992186-d8be-4809-9173-672c1b41ca8e}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -14573,7 +14573,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{972289f1-4103-4e5f-a558-ceae0c6160d9}</x14:id>
+          <x14:id>{97d539b1-b08e-4e88-828f-97ffe11f0c9a}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -14587,7 +14587,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{da1c9f62-c543-48c5-9af4-c9ff2b3053d0}</x14:id>
+          <x14:id>{cd81fb98-b67a-4621-9d1b-50717cfd3b36}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -14601,7 +14601,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{3ff25e69-d824-4a18-b00e-fef90b1be3b3}</x14:id>
+          <x14:id>{1fdf1b6c-b92e-4a0c-bf2d-b2350fe638c5}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -14615,7 +14615,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{703c35c5-2a13-4146-a4a6-fc8e4d418d97}</x14:id>
+          <x14:id>{b9e7e27c-3569-47d5-9fd2-5360cbe06294}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -14629,7 +14629,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{8d8d5340-aea7-41f9-bd62-6f0200f8aad5}</x14:id>
+          <x14:id>{bdb05b8f-5bf0-45b0-98f8-c9f474efecc9}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -14653,7 +14653,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{fa0d680a-bd0c-4db5-bd5b-c73e87fdb94a}</x14:id>
+          <x14:id>{29c55706-66e4-466e-8693-22e69c51a512}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -14675,7 +14675,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{b31de453-91bd-477f-8f46-2773ea020b35}</x14:id>
+          <x14:id>{30d96a22-a9f9-4792-b3a6-8cf0e0daac94}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -14724,7 +14724,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{6d9b49f1-2dfe-4a54-aeda-4a5125e88d38}">
+          <x14:cfRule type="dataBar" id="{4482c56c-6eb3-4cfb-9a6a-6493b4003e11}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -14739,7 +14739,7 @@
           <xm:sqref>H11</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{0d569941-623b-46ef-b7d2-60593c30e290}">
+          <x14:cfRule type="dataBar" id="{fd71954d-6044-4954-a569-29533bafcab4}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -14754,7 +14754,7 @@
           <xm:sqref>H18</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{9e40adfc-7411-4b22-a00f-18799c52dd01}">
+          <x14:cfRule type="dataBar" id="{92052572-ec95-40c6-8cff-ce2880a57e57}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -14769,7 +14769,7 @@
           <xm:sqref>H19</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{e99c1bd9-211a-4441-841f-0cb87c5ead93}">
+          <x14:cfRule type="dataBar" id="{8408aef4-25f9-4b6b-b36b-e90e4588755a}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -14784,7 +14784,7 @@
           <xm:sqref>H32</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{333d8681-1ef7-46c9-b97a-d78faac61ea6}">
+          <x14:cfRule type="dataBar" id="{34560cce-4904-4320-84ee-f911ace3bc9c}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -14799,7 +14799,7 @@
           <xm:sqref>H33</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{da0102ec-bbcb-412c-9a6f-f752ee4fb467}">
+          <x14:cfRule type="dataBar" id="{9cb55428-4e78-47a5-a430-f1e9e981128e}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -14814,7 +14814,7 @@
           <xm:sqref>H34</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{fd8b1f7b-82bb-498f-9e99-9236321aa8bb}">
+          <x14:cfRule type="dataBar" id="{1d315e36-7aa5-4036-94b6-f74208a2bead}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -14829,7 +14829,7 @@
           <xm:sqref>H35</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{cd6eec67-d798-476b-a534-fb7292ed9696}">
+          <x14:cfRule type="dataBar" id="{629ec47f-a6d2-4e9d-b480-235808cb0f70}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -14844,7 +14844,7 @@
           <xm:sqref>H36</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{17795809-f84f-4fee-8815-b42d0cda1b51}">
+          <x14:cfRule type="dataBar" id="{a0d06acf-9cfe-4cfa-8f69-3ede38b202ca}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -14859,7 +14859,7 @@
           <xm:sqref>H37</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{c28cc4a3-1f4d-4505-b2cd-7ae0e1b06007}">
+          <x14:cfRule type="dataBar" id="{319a2f99-e330-4ff2-b0e9-e932fb88917b}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -14874,7 +14874,7 @@
           <xm:sqref>H38</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{fbd4ec82-0f66-4e3a-8956-ab5627980f95}">
+          <x14:cfRule type="dataBar" id="{885825fa-2905-4af0-a963-f23e8e89edfb}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -14889,7 +14889,7 @@
           <xm:sqref>H39</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{6ae96f68-b42f-4796-b06c-5b1c256126b4}">
+          <x14:cfRule type="dataBar" id="{9f7cbb9a-7ec9-41c6-9ea2-33e0795f2b2c}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -14904,7 +14904,7 @@
           <xm:sqref>H93</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{71a9e1c0-6bf3-47a9-bfd1-23e637bdc10a}">
+          <x14:cfRule type="dataBar" id="{81ea1f9b-021c-40a2-9156-f8bd04603329}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -14919,7 +14919,7 @@
           <xm:sqref>H94</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{2fb2f425-1546-4333-823b-bc3b911ddf51}">
+          <x14:cfRule type="dataBar" id="{deb05009-d4f4-4fd8-a95f-9c8952258b66}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -14934,7 +14934,7 @@
           <xm:sqref>H102</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{b30e300e-aaee-48a4-bac0-e2d530c5c5fd}">
+          <x14:cfRule type="dataBar" id="{3ecc0ff8-2761-4ff4-9f16-66b1a22017df}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -14949,7 +14949,7 @@
           <xm:sqref>H103</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{e868eddb-6372-4845-a5fd-469561e41c6a}">
+          <x14:cfRule type="dataBar" id="{c139d09a-a0c1-454d-9d88-049d41cb8d62}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -14964,7 +14964,7 @@
           <xm:sqref>H104</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{dcbfc4c2-0db9-4564-b2eb-1a67dc871ed5}">
+          <x14:cfRule type="dataBar" id="{545ac8f0-ed06-4327-8c1d-483b37157a81}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -14979,7 +14979,7 @@
           <xm:sqref>H105</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{89b4c063-9869-4c0d-8d37-1648c1a023b5}">
+          <x14:cfRule type="dataBar" id="{d1a25fd7-15f2-4756-b6cb-dd248d63790c}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -14994,7 +14994,7 @@
           <xm:sqref>H106</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{b52014f0-7fdc-4fad-891b-adcc43df0f14}">
+          <x14:cfRule type="dataBar" id="{3d4b97c2-cb3e-4843-9b67-f6b478e3283a}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -15009,7 +15009,7 @@
           <xm:sqref>H107</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{b8a2ae99-6364-43de-b552-7c89ba062b91}">
+          <x14:cfRule type="dataBar" id="{21354551-4458-4dd9-998b-c85723b7773d}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -15024,7 +15024,7 @@
           <xm:sqref>H111</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{cb698757-1a5a-4cfc-ad6f-66d771bc748e}">
+          <x14:cfRule type="dataBar" id="{f694d179-aedf-4fee-9083-038d3f9b123e}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -15039,7 +15039,7 @@
           <xm:sqref>H117</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{67cfcd7b-3bc1-4361-8aa3-1abcd3ba18aa}">
+          <x14:cfRule type="dataBar" id="{8796d6af-b351-4060-a04c-aaf11674d959}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -15054,7 +15054,7 @@
           <xm:sqref>H118</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{c36869c5-afc7-4b5b-b485-3ff1f8b36ab8}">
+          <x14:cfRule type="dataBar" id="{1d1005a1-e5ba-44ce-a05a-1d6d599328c6}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -15069,7 +15069,7 @@
           <xm:sqref>H12:H15</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{5a1f4cf5-3046-4072-94cb-73ef63672064}">
+          <x14:cfRule type="dataBar" id="{05571c06-b7a1-4cb1-9b09-14b8a237a0a2}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -15084,7 +15084,7 @@
           <xm:sqref>H16:H17</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{7194ea5b-f434-4fe3-8da2-36ffe313afc7}">
+          <x14:cfRule type="dataBar" id="{25992186-d8be-4809-9173-672c1b41ca8e}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -15099,7 +15099,7 @@
           <xm:sqref>H85:H89</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{972289f1-4103-4e5f-a558-ceae0c6160d9}">
+          <x14:cfRule type="dataBar" id="{97d539b1-b08e-4e88-828f-97ffe11f0c9a}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -15114,7 +15114,7 @@
           <xm:sqref>H90:H92</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{da1c9f62-c543-48c5-9af4-c9ff2b3053d0}">
+          <x14:cfRule type="dataBar" id="{cd81fb98-b67a-4621-9d1b-50717cfd3b36}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -15129,7 +15129,7 @@
           <xm:sqref>H95:H99</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{3ff25e69-d824-4a18-b00e-fef90b1be3b3}">
+          <x14:cfRule type="dataBar" id="{1fdf1b6c-b92e-4a0c-bf2d-b2350fe638c5}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -15144,7 +15144,7 @@
           <xm:sqref>H100:H101</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{703c35c5-2a13-4146-a4a6-fc8e4d418d97}">
+          <x14:cfRule type="dataBar" id="{b9e7e27c-3569-47d5-9fd2-5360cbe06294}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -15159,7 +15159,7 @@
           <xm:sqref>H108:H110</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{8d8d5340-aea7-41f9-bd62-6f0200f8aad5}">
+          <x14:cfRule type="dataBar" id="{bdb05b8f-5bf0-45b0-98f8-c9f474efecc9}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -15174,7 +15174,7 @@
           <xm:sqref>H112:H116</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{fa0d680a-bd0c-4db5-bd5b-c73e87fdb94a}">
+          <x14:cfRule type="dataBar" id="{29c55706-66e4-466e-8693-22e69c51a512}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -15189,7 +15189,7 @@
           <xm:sqref>H8:H10 H79:H84 H20:H31</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{b31de453-91bd-477f-8f46-2773ea020b35}">
+          <x14:cfRule type="dataBar" id="{30d96a22-a9f9-4792-b3a6-8cf0e0daac94}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -16678,7 +16678,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{4dbd08b0-550c-4b4f-b363-ff135e68d077}</x14:id>
+          <x14:id>{e0c1a745-4d2d-4ea1-968a-2f090ac5a1f5}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -16703,7 +16703,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{4554e6f2-5fdd-44e5-b97a-c72fc2ccdaf1}</x14:id>
+          <x14:id>{da485fcb-3a99-49bd-a8d0-8e49403d91df}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -16728,7 +16728,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{4843e9d9-4422-4fd0-8f3a-eb7e4e962828}</x14:id>
+          <x14:id>{38ffe0e3-9f56-4a82-994b-ba438e63715f}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -16753,7 +16753,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{13efb27c-72d1-4705-ba48-747f3a37e8cb}</x14:id>
+          <x14:id>{049f7bc2-b701-4154-b671-6f1ea3a20942}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -16778,7 +16778,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{d43a43cf-135a-4f38-9aad-2c80d7e8e89c}</x14:id>
+          <x14:id>{62d4196a-6b43-43b6-a153-5c6c129c17d5}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -16800,7 +16800,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{4dbd08b0-550c-4b4f-b363-ff135e68d077}">
+          <x14:cfRule type="dataBar" id="{e0c1a745-4d2d-4ea1-968a-2f090ac5a1f5}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -16815,7 +16815,7 @@
           <xm:sqref>H13</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{4554e6f2-5fdd-44e5-b97a-c72fc2ccdaf1}">
+          <x14:cfRule type="dataBar" id="{da485fcb-3a99-49bd-a8d0-8e49403d91df}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -16830,7 +16830,7 @@
           <xm:sqref>H14</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{4843e9d9-4422-4fd0-8f3a-eb7e4e962828}">
+          <x14:cfRule type="dataBar" id="{38ffe0e3-9f56-4a82-994b-ba438e63715f}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -16845,7 +16845,7 @@
           <xm:sqref>H15</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{13efb27c-72d1-4705-ba48-747f3a37e8cb}">
+          <x14:cfRule type="dataBar" id="{049f7bc2-b701-4154-b671-6f1ea3a20942}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -16860,7 +16860,7 @@
           <xm:sqref>H16</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{d43a43cf-135a-4f38-9aad-2c80d7e8e89c}">
+          <x14:cfRule type="dataBar" id="{62d4196a-6b43-43b6-a153-5c6c129c17d5}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
